--- a/A dog chasing cars/DanClark/CODELLIGENT/2do parcial POO_APCC - 4) Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/2do parcial POO_APCC - 4) Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4DE343-560B-41F1-B637-24A4E9B19C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3B993C-E73A-4EBD-8EA4-E2F95D05739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -70,52 +70,64 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) que genera automáticamente una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
-  </si>
-  <si>
-    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" un Datagridview  (5 columnas) en el que se listan automáticamente los cobros pendientes del cliente seleccionado en grilla 1.</t>
-  </si>
-  <si>
-    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" una lista de cobros pendientes y un botón Pagar deshabilitado. Si selecciona una fila, un botón de pago se habilitará y podrá pulsarlo. Habrá un diálogo de confirmación. Luego de confirmado, el botón se deshabilitará de nuevo y el registro desaparecerá del listado y pasará a las Grillas 3, 4 y 5.</t>
-  </si>
-  <si>
-    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" 2 Radio + 3 Textbox + 1 Datepicker para ingresar los datos de un cobro que se asignará al cliente seleccionado en Grilla 1. Para completar el alta debe apretar un botón (que permanece habilitado). Habrá un diálogo de confirmación.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Groupbox "Grilla 3: Cobros cancelados del cliente" y un Datagridview (8 columnas) con detalles de la cancelación (que salieron de la grilla 2): cliente, tipo, código, nombre, vencimiento, importe, recargo y total. En esta grilla 3, el usuario no ve ningún control asociado.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Groupbox "Grilla 4: Cobros cancelados del cliente" con un Datagridview (8 columnas) y asociados, 2 Radio (Ascendente, Descendente). En la lista, al igual que Grilla 3, el registro expulsado de Grilla 2 (cobros pendientes). Según lo que elija en los Radio, la lista se ordena ascendente o descendentemente. Los datos de la lista son los mismos que los de la Grilla 3,</t>
-  </si>
-  <si>
-    <t>El usuario ve un Groupbox "Grilla 5: Cobros cancelados del cliente" y un Datagridview (2 columnas). En esta grilla 5, el usuario no ve ningún control asociado y la lista solo enlista: Cliente y Total a pagar.</t>
-  </si>
-  <si>
-    <t>cliente, listado de clientes</t>
-  </si>
-  <si>
     <t>CLASES CANDIDATAS</t>
   </si>
   <si>
-    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) en el que cuenta con dos campos (Legajo, Nombre) para ingresar los datos de alta de cliente. Mientras este botón de alta está habilitado, los de modificación y elminación permanecen deshabilitados. Si selecciona una fila de la lista de clientes, puede editar (modificar, elimiar) los datos (se reflejan en los campos) pulsando 1 de 2 botones pertinentes (que se habilitan al seleccionar la fila mientras el botón de alta se deshabilita). Finalizada la edición, los botones de edición se deshabilitan y el de altas se vuelve a habilitar. En todos los casos se muestra un diálogo de confirmación.</t>
-  </si>
-  <si>
     <t>Listar cobros cancelados de cliente (con LINQ, tipos anónimos)</t>
   </si>
   <si>
-    <t>cliente</t>
-  </si>
-  <si>
-    <t>cobros, cobros normales, cobros especiales</t>
-  </si>
-  <si>
-    <t>pagos, pagos pendientes, pagos cancelados</t>
-  </si>
-  <si>
-    <t>listado de pagos cancelados</t>
-  </si>
-  <si>
-    <t>listado depagos pendientes</t>
+    <t>El usuario ve un GRP "Grilla 1: Listado de clientes" con un DGV (2 columnas) que genera automáticamente una lista de clientes con los siguientes detalles: Legajo y Nombre. La única acción de parte del usuario es seleccionar la fila que dispara un evento que: (1) deshabilita CMD Alta (2) habilita CMD Modificación y Baja (3) copia los valores del cliente seleccionado a los TBOX (5) desabilita TBOX Legajo. Al clickear una celda, desencadena un evento que hace las operaciones opuestas.</t>
+  </si>
+  <si>
+    <t>CCliente</t>
+  </si>
+  <si>
+    <t>El usuario ve un GRP "Grilla 1: Listado de clientes" con un DGV (2 columnas) que cuenta con dos columnas (Legajo, Nombre). Mientras el CMD Alta está habilitado, los de Modificación y Baja permanecen deshabilitados. Si selecciona una fila de la lista de clientes, puede editar (Modificar, Eliminar). Los datos se reflejan en los campos. Finalizada la edición, los CMD de edición se deshabilitan y el de Altas se vuelve a habilitar. En todos los casos se muestra un diálogo de confirmación.</t>
+  </si>
+  <si>
+    <t>ICobro
+CCobro
+CCobroNormal
+CCobroEspecial</t>
+  </si>
+  <si>
+    <t>CPago</t>
+  </si>
+  <si>
+    <t>El usuario ve en el GRP "Grilla 2: Cobros pendientes del cliente" DGV + CHECK (Especial) + TBOX (Código) + TBOX (Nombre de Cobro) + DTP (Fecha de Vencimiento) + TBOX (Importe) + CMD (Alta) + CMD (Pagar).
+Eventos ante selección de filas:
+G1 sí, G2 no: HABILITADOS: TBOX (en blanco) + CMD Alta. DESABILITADOS: CMD Pagar.
+G1 sí, G2 sí: HABILITADOS: CMD Pagar. DESABILITADOS: CMD Alta + TBOX (con data).
+G1 no, G2 no: HABILITADOS: TBOX (en blanco) + CMD Alta. DESABILITADOS: CMD Pagar.
+G1 no, G2 sí: DESABILITADOS: CMD Alta + TBOX (con data) + CMD Pagar.
+Ambos CMD llaman a MSGBOX</t>
+  </si>
+  <si>
+    <t>El usuario ve un GRP "Grilla 2: Cobros pendientes del cliente" una lista de cobros pendientes.  Si selecciona una fila, CMD Pagar se habilita. Habrá MSGBOX a confirmar. Luego de confirmado, el CMD Pagar se deshabilita. El registro desaparece del listado y pasa a las Grillas 3, 4 y 5.</t>
+  </si>
+  <si>
+    <t>El usuario ve en un GRP "Grilla 2: Cobros pendientes del cliente" un DGV  (6 columnas) en el que se listan automáticamente los cobros pendientes del cliente seleccionado en Grilla 1.
+COLUMNAS:
+Tipo, Código, Nombre del Cobro, Fecha de Vencimiento, Importe, Cliente.</t>
+  </si>
+  <si>
+    <t>El usuario ve un GRP "Grilla 3: Cobros cancelados del cliente" y un DGV (8 columnas) con detalles de la cancelación:
+COLUMNAS:
+Tipo, Código, Nombre del Cobro, Fecha de Vencimiento, Importe, Cliente, Recargo, Total.
+En esta Grilla 3, el usuario no ve ningún control asociado.</t>
+  </si>
+  <si>
+    <t>El usuario ve un GRP
+"Grilla 4: Cobros cancelados del cliente (ordenable)"
+con un DGV (8 columnas) y asociados, 2 RADIO (Ascendente, Descendente).
+La lista (columnas) es igual de la Grilla 3.
+Según lo que elija en los Radio, la lista se ordena ascendente o descendentemente.</t>
+  </si>
+  <si>
+    <t>El usuario ve GRP
+"Grilla 5: Cobros cancelados del cliente (lista reducida)"
+con un DGV (2 columnas): Nombre y Total.
+En esta grilla 5, el usuario no ve ningún control asociado.</t>
   </si>
 </sst>
 </file>
@@ -475,16 +487,16 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,10 +510,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,13 +535,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -537,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -565,13 +577,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -593,30 +605,30 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
